--- a/软维组日常工作记录跟踪表/软维组工作计划跟踪表汇总_yj.xlsx
+++ b/软维组日常工作记录跟踪表/软维组工作计划跟踪表汇总_yj.xlsx
@@ -3050,6 +3050,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3067,9 +3070,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3391,16 +3391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
@@ -4647,16 +4647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -5297,16 +5297,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -6563,8 +6563,8 @@
   <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6580,16 +6580,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -8214,7 +8214,7 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="31">
+      <c r="A73" s="25">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -8942,16 +8942,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -13684,16 +13684,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -15192,16 +15192,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -15921,16 +15921,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -16434,16 +16434,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
